--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem4/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem4/123/word_level_predictions_123.xlsx
@@ -3697,7 +3697,7 @@
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G63" s="2" t="b">
@@ -3721,59 +3721,59 @@
       </c>
       <c r="L63" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
+      <c r="A64" t="n">
         <v>4</v>
       </c>
-      <c r="B64" s="2" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C64" s="2" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D64" s="2" t="n">
+      <c r="D64" t="n">
         <v>3</v>
       </c>
-      <c r="E64" s="2" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F64" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G64" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I64" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K64" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L64" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I64" t="b">
+        <v>1</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K64" t="b">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_B</t>
         </is>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G65" t="b">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -10509,7 +10509,7 @@
       </c>
       <c r="F194" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G194" s="2" t="b">
@@ -10533,7 +10533,7 @@
       </c>
       <c r="L194" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13317,7 +13317,7 @@
       </c>
       <c r="F248" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G248" s="2" t="b">
@@ -13329,11 +13329,11 @@
         </is>
       </c>
       <c r="I248" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J248" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K248" s="2" t="b">
@@ -13341,7 +13341,7 @@
       </c>
       <c r="L248" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13369,7 +13369,7 @@
       </c>
       <c r="F249" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G249" s="2" t="b">
@@ -13381,11 +13381,11 @@
         </is>
       </c>
       <c r="I249" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J249" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K249" s="2" t="b">
@@ -13393,7 +13393,7 @@
       </c>
       <c r="L249" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13421,7 +13421,7 @@
       </c>
       <c r="F250" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G250" s="2" t="b">
@@ -13433,11 +13433,11 @@
         </is>
       </c>
       <c r="I250" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J250" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K250" s="2" t="b">
@@ -13445,7 +13445,7 @@
       </c>
       <c r="L250" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13473,7 +13473,7 @@
       </c>
       <c r="F251" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G251" s="2" t="b">
@@ -13485,11 +13485,11 @@
         </is>
       </c>
       <c r="I251" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J251" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K251" s="2" t="b">
@@ -13497,7 +13497,7 @@
       </c>
       <c r="L251" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13525,7 +13525,7 @@
       </c>
       <c r="F252" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G252" s="2" t="b">
@@ -13537,11 +13537,11 @@
         </is>
       </c>
       <c r="I252" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J252" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K252" s="2" t="b">
@@ -13549,7 +13549,7 @@
       </c>
       <c r="L252" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13577,7 +13577,7 @@
       </c>
       <c r="F253" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G253" s="2" t="b">
@@ -13589,11 +13589,11 @@
         </is>
       </c>
       <c r="I253" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J253" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K253" s="2" t="b">
@@ -13601,7 +13601,7 @@
       </c>
       <c r="L253" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13629,7 +13629,7 @@
       </c>
       <c r="F254" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G254" s="2" t="b">
@@ -13641,11 +13641,11 @@
         </is>
       </c>
       <c r="I254" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J254" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K254" s="2" t="b">
@@ -13653,7 +13653,7 @@
       </c>
       <c r="L254" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13681,7 +13681,7 @@
       </c>
       <c r="F255" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G255" s="2" t="b">
@@ -13693,11 +13693,11 @@
         </is>
       </c>
       <c r="I255" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J255" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K255" s="2" t="b">
@@ -13705,7 +13705,7 @@
       </c>
       <c r="L255" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13745,11 +13745,11 @@
         </is>
       </c>
       <c r="I256" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J256" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K256" s="2" t="b">
@@ -13785,7 +13785,7 @@
       </c>
       <c r="F257" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G257" s="2" t="b">
@@ -13797,11 +13797,11 @@
         </is>
       </c>
       <c r="I257" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J257" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K257" s="2" t="b">
@@ -13809,7 +13809,7 @@
       </c>
       <c r="L257" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem4/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem4/123/word_level_predictions_123.xlsx
@@ -3697,7 +3697,7 @@
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G63" s="2" t="b">
@@ -3721,59 +3721,59 @@
       </c>
       <c r="L63" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
+      <c r="A64" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C64" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D64" t="n">
+      <c r="D64" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="E64" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G64" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I64" t="b">
-        <v>1</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K64" t="b">
-        <v>1</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_B</t>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G64" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L64" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G65" t="b">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10509,7 +10509,7 @@
       </c>
       <c r="F194" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G194" s="2" t="b">
@@ -10533,7 +10533,7 @@
       </c>
       <c r="L194" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13317,7 +13317,7 @@
       </c>
       <c r="F248" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G248" s="2" t="b">
@@ -13329,11 +13329,11 @@
         </is>
       </c>
       <c r="I248" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J248" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K248" s="2" t="b">
@@ -13341,7 +13341,7 @@
       </c>
       <c r="L248" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13369,7 +13369,7 @@
       </c>
       <c r="F249" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G249" s="2" t="b">
@@ -13381,11 +13381,11 @@
         </is>
       </c>
       <c r="I249" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J249" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K249" s="2" t="b">
@@ -13393,7 +13393,7 @@
       </c>
       <c r="L249" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13421,7 +13421,7 @@
       </c>
       <c r="F250" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G250" s="2" t="b">
@@ -13433,11 +13433,11 @@
         </is>
       </c>
       <c r="I250" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J250" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K250" s="2" t="b">
@@ -13445,7 +13445,7 @@
       </c>
       <c r="L250" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13473,7 +13473,7 @@
       </c>
       <c r="F251" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G251" s="2" t="b">
@@ -13485,11 +13485,11 @@
         </is>
       </c>
       <c r="I251" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J251" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K251" s="2" t="b">
@@ -13497,7 +13497,7 @@
       </c>
       <c r="L251" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13525,7 +13525,7 @@
       </c>
       <c r="F252" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G252" s="2" t="b">
@@ -13537,11 +13537,11 @@
         </is>
       </c>
       <c r="I252" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J252" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K252" s="2" t="b">
@@ -13549,7 +13549,7 @@
       </c>
       <c r="L252" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13577,7 +13577,7 @@
       </c>
       <c r="F253" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G253" s="2" t="b">
@@ -13589,11 +13589,11 @@
         </is>
       </c>
       <c r="I253" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J253" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K253" s="2" t="b">
@@ -13601,7 +13601,7 @@
       </c>
       <c r="L253" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13629,7 +13629,7 @@
       </c>
       <c r="F254" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G254" s="2" t="b">
@@ -13641,11 +13641,11 @@
         </is>
       </c>
       <c r="I254" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J254" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K254" s="2" t="b">
@@ -13653,7 +13653,7 @@
       </c>
       <c r="L254" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13681,7 +13681,7 @@
       </c>
       <c r="F255" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G255" s="2" t="b">
@@ -13693,11 +13693,11 @@
         </is>
       </c>
       <c r="I255" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J255" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K255" s="2" t="b">
@@ -13705,7 +13705,7 @@
       </c>
       <c r="L255" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13745,11 +13745,11 @@
         </is>
       </c>
       <c r="I256" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J256" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K256" s="2" t="b">
@@ -13785,7 +13785,7 @@
       </c>
       <c r="F257" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G257" s="2" t="b">
@@ -13797,11 +13797,11 @@
         </is>
       </c>
       <c r="I257" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J257" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K257" s="2" t="b">
@@ -13809,7 +13809,7 @@
       </c>
       <c r="L257" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
